--- a/16.06/Формулы основы.xlsx
+++ b/16.06/Формулы основы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\Desktop\243\16.06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36544F7-0221-4E73-B049-6FA963DA3E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C957AF-1869-4C9D-A124-AD603B17C431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="709" activeTab="7" xr2:uid="{A0D46EFD-68BA-44D3-A5E8-54883BE1152A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="709" xr2:uid="{A0D46EFD-68BA-44D3-A5E8-54883BE1152A}"/>
   </bookViews>
   <sheets>
     <sheet name="Функции_основы" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t xml:space="preserve">СЧЕТ </t>
   </si>
@@ -184,9 +184,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="dd/mm/yy\ h:mm;@"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy\ h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -222,7 +222,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +289,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="32">
     <border>
@@ -715,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -783,44 +789,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -836,51 +817,41 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -969,13 +940,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -988,6 +952,49 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1043,24 +1050,24 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2333852E-1D7A-44DD-9ABA-C1A70106C8F1}" name="Таблица1" displayName="Таблица1" ref="C5:G9" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2333852E-1D7A-44DD-9ABA-C1A70106C8F1}" name="Таблица1" displayName="Таблица1" ref="C5:G9" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="C5:G9" xr:uid="{2333852E-1D7A-44DD-9ABA-C1A70106C8F1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:G9">
     <sortCondition ref="G5:G9"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3EF1C5F2-E452-429C-A6C8-CC4E8F93EE5C}" name="Найменование" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{47656FA1-B55F-4716-8984-B752E6645824}" name="Производитель" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{354AFECF-22A0-43F3-A263-62731B476EFF}" name="Цена" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{4B4F77F3-B034-4646-8DD2-1AE2FF493CDA}" name="Количество" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{D5B326B3-33A3-4C8E-ADB3-1B37463FFA4D}" name="Скидка" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{3EF1C5F2-E452-429C-A6C8-CC4E8F93EE5C}" name="Найменование" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{47656FA1-B55F-4716-8984-B752E6645824}" name="Производитель" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{354AFECF-22A0-43F3-A263-62731B476EFF}" name="Цена" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{4B4F77F3-B034-4646-8DD2-1AE2FF493CDA}" name="Количество" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{D5B326B3-33A3-4C8E-ADB3-1B37463FFA4D}" name="Скидка" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1363,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960768E2-66E0-45CB-B1FB-9C8BFE038E8C}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:L8"/>
+    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,11 +1394,11 @@
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="48">
         <f ca="1">NOW()</f>
-        <v>45093.794354282407</v>
+        <v>45096.591701851852</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52">
+      <c r="A2" s="49">
         <v>45093.714189814818</v>
       </c>
       <c r="C2" t="s">
@@ -1571,7 +1578,7 @@
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15">
-        <f>SUM(I4,I5,I6,I7)</f>
+        <f>SUM(I4:I7)</f>
         <v>27500</v>
       </c>
       <c r="J8" s="15">
@@ -1720,13 +1727,13 @@
       <c r="H14" s="29">
         <v>4444777722228880</v>
       </c>
-      <c r="K14" s="49" t="s">
+      <c r="K14" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="51"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="69"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
@@ -1834,6 +1841,82 @@
       <c r="B26" t="str">
         <f>PROPER(B25)</f>
         <v>Это Заголовок</v>
+      </c>
+      <c r="F26" s="2">
+        <v>654</v>
+      </c>
+      <c r="G26" s="2">
+        <v>546</v>
+      </c>
+      <c r="H26" s="2">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F27" s="2">
+        <v>466</v>
+      </c>
+      <c r="G27" s="2">
+        <v>133</v>
+      </c>
+      <c r="H27" s="2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F28" s="2">
+        <v>515</v>
+      </c>
+      <c r="G28" s="2">
+        <v>546</v>
+      </c>
+      <c r="H28" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F29" s="2">
+        <v>213</v>
+      </c>
+      <c r="G29" s="2">
+        <v>232</v>
+      </c>
+      <c r="H29" s="2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F30" s="2">
+        <v>213</v>
+      </c>
+      <c r="G30" s="2">
+        <v>786</v>
+      </c>
+      <c r="H30" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F31" s="2">
+        <v>984</v>
+      </c>
+      <c r="G31" s="2">
+        <v>846</v>
+      </c>
+      <c r="H31" s="2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E32" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75">
+        <f>SUM(F26:F31,G26:G31,H26:H31)</f>
+        <v>8695</v>
       </c>
     </row>
   </sheetData>
@@ -1850,7 +1933,7 @@
   <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C5" sqref="C5:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1861,23 +1944,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="50" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1888,10 +1971,10 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="51">
         <v>4532</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="51">
         <f>D5*C5</f>
         <v>18128</v>
       </c>
@@ -1903,10 +1986,10 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="51">
         <v>6543</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="51">
         <f t="shared" ref="E6:E7" si="0">D6*C6</f>
         <v>19629</v>
       </c>
@@ -1918,10 +2001,10 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="51">
         <v>2345</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="51">
         <f t="shared" si="0"/>
         <v>4690</v>
       </c>
@@ -1953,35 +2036,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="H2" t="s">
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="H2" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="59">
+      <c r="I2" s="76">
         <v>0.19</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="52" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1992,18 +2075,18 @@
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="51">
         <v>4532</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="51">
         <f>(E5*D5)*$I$2</f>
         <v>3444.32</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="51">
         <f>E5*D5</f>
         <v>18128</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="51">
         <f>G5+F5</f>
         <v>21572.32</v>
       </c>
@@ -2015,18 +2098,18 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="51">
         <v>6543</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="51">
         <f t="shared" ref="F6:F9" si="0">(E6*D6)*$I$2</f>
         <v>2486.34</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="51">
         <f t="shared" ref="G6:G7" si="1">E6*D6</f>
         <v>13086</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="51">
         <f t="shared" ref="H6:H9" si="2">G6+F6</f>
         <v>15572.34</v>
       </c>
@@ -2038,18 +2121,18 @@
       <c r="D7">
         <v>5</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="51">
         <v>2345</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="51">
         <f t="shared" si="0"/>
         <v>2227.75</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="51">
         <f t="shared" si="1"/>
         <v>11725</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="51">
         <f t="shared" si="2"/>
         <v>13952.75</v>
       </c>
@@ -2061,18 +2144,18 @@
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="51">
         <v>1500</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="51">
         <f t="shared" si="0"/>
         <v>855</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="51">
         <f>E8*D8</f>
         <v>4500</v>
       </c>
-      <c r="H8" s="55">
+      <c r="H8" s="51">
         <f t="shared" si="2"/>
         <v>5355</v>
       </c>
@@ -2084,66 +2167,66 @@
       <c r="D9">
         <v>7</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="51">
         <v>900</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="51">
         <f t="shared" si="0"/>
         <v>1197</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="51">
         <f>E9*D9</f>
         <v>6300</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="51">
         <f t="shared" si="2"/>
         <v>7497</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="H10" s="59"/>
+      <c r="H10" s="53"/>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="H11" s="59"/>
+      <c r="H11" s="53"/>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="H12" s="59"/>
+      <c r="H12" s="53"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="H13" s="59"/>
+      <c r="H13" s="53"/>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="H14" s="59"/>
+      <c r="H14" s="53"/>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="H15" s="59"/>
+      <c r="H15" s="53"/>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="H16" s="59"/>
+      <c r="H16" s="53"/>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="59"/>
+      <c r="H17" s="53"/>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" s="59"/>
+      <c r="H18" s="53"/>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="59"/>
+      <c r="H19" s="53"/>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H20" s="59"/>
+      <c r="H20" s="53"/>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H21" s="59"/>
+      <c r="H21" s="53"/>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H22" s="59"/>
+      <c r="H22" s="53"/>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H23" s="59"/>
+      <c r="H23" s="53"/>
     </row>
     <row r="24" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H24" s="59"/>
+      <c r="H24" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2158,130 +2241,130 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="5" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="66">
+      <c r="B6" s="74"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="57">
         <v>1</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="57">
         <v>1.5</v>
       </c>
-      <c r="F6" s="66">
+      <c r="F6" s="57">
         <v>2</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="57">
         <v>2.5</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="62"/>
-      <c r="C7" s="65">
+      <c r="B7" s="74"/>
+      <c r="C7" s="56">
         <v>1</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="55">
         <f>D$6*$C7</f>
         <v>1</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="55">
         <f t="shared" ref="E7:G10" si="0">E$6*$C7</f>
         <v>1.5</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F7" s="55">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="55">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="62"/>
-      <c r="C8" s="65">
+      <c r="B8" s="74"/>
+      <c r="C8" s="56">
         <v>1.5</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="55">
         <f t="shared" ref="D8:D10" si="1">D$6*$C8</f>
         <v>1.5</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="55">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-      <c r="F8" s="64">
+      <c r="F8" s="55">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G8" s="64">
+      <c r="G8" s="55">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="62"/>
-      <c r="C9" s="65">
+      <c r="B9" s="74"/>
+      <c r="C9" s="56">
         <v>2</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="55">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="55">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F9" s="64">
+      <c r="F9" s="55">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G9" s="64">
+      <c r="G9" s="55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="62"/>
-      <c r="C10" s="65">
+      <c r="B10" s="74"/>
+      <c r="C10" s="56">
         <v>2.5</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="55">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="E10" s="64">
+      <c r="E10" s="55">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="F10" s="64">
+      <c r="F10" s="55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="64">
+      <c r="G10" s="55">
         <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
@@ -2321,7 +2404,7 @@
   <dimension ref="C5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2330,7 +2413,7 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="67">
+      <c r="C5" s="58">
         <f>Функции_основы!L8 * Лист5!D7</f>
         <v>210370019300</v>
       </c>
@@ -2345,7 +2428,7 @@
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2374,7 +2457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D1686E-A98D-49E2-8D85-E086A41604E0}">
   <dimension ref="C4:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -2387,28 +2470,28 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="H4" s="74"/>
+      <c r="H4" s="65"/>
     </row>
     <row r="5" spans="3:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="75"/>
+      <c r="H5" s="66"/>
     </row>
     <row r="6" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="59" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -2423,10 +2506,10 @@
       <c r="G6" s="17">
         <v>250</v>
       </c>
-      <c r="H6" s="74"/>
+      <c r="H6" s="65"/>
     </row>
     <row r="7" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="60" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2441,10 +2524,10 @@
       <c r="G7" s="18">
         <v>300</v>
       </c>
-      <c r="H7" s="74"/>
+      <c r="H7" s="65"/>
     </row>
     <row r="8" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="60" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2459,10 +2542,10 @@
       <c r="G8" s="18">
         <v>500</v>
       </c>
-      <c r="H8" s="74"/>
+      <c r="H8" s="65"/>
     </row>
     <row r="9" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="61" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -2477,21 +2560,21 @@
       <c r="G9" s="19">
         <v>1000</v>
       </c>
-      <c r="H9" s="74"/>
+      <c r="H9" s="65"/>
     </row>
     <row r="10" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="H11" s="74"/>
+      <c r="H11" s="65"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="H12" s="74"/>
+      <c r="H12" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
